--- a/config/testcases/Report_EEPS01SpeakingSentence(Clone).xlsx
+++ b/config/testcases/Report_EEPS01SpeakingSentence(Clone).xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="V85SoX8j9i9Tz5RZN1p6rb4J4sjkJPg2yjPpzBp4DTA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="yuAken6Z875f60v8ccBf+wHo50zBDXyaLS5W8/uF6NU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>TCID</t>
   </si>
@@ -181,25 +181,10 @@
     <t>*PS01SpeakingSentence*,120</t>
   </si>
   <si>
-    <t>getTextNoColor</t>
+    <t>Đợi mic xuất hiện</t>
   </si>
   <si>
-    <t>Item: 20Text/GameItemText/Content/Text,TextMeshProUGUI</t>
-  </si>
-  <si>
-    <t>$.turn[0].word[*].text</t>
-  </si>
-  <si>
-    <t>Kiểm tra audio câu lượt 1</t>
-  </si>
-  <si>
-    <t>getAudiosSourceByTime</t>
-  </si>
-  <si>
-    <t>Managers/SoundManager/FxSource,15</t>
-  </si>
-  <si>
-    <t>$.turn[0].word[?(@.type=="question")].audio[*].file_path</t>
+    <t>Mic/Enabled</t>
   </si>
   <si>
     <t>TS5</t>
@@ -441,13 +426,13 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1381,25 +1366,23 @@
       <c r="B9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>54</v>
+      </c>
       <c r="F9" s="24"/>
       <c r="G9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33" t="s">
-        <v>55</v>
-      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="26"/>
       <c r="M9" s="28"/>
       <c r="N9" s="26"/>
@@ -1416,34 +1399,30 @@
       <c r="Y9" s="26"/>
       <c r="Z9" s="26"/>
     </row>
-    <row r="10" ht="53.25" customHeight="1">
-      <c r="A10" s="23" t="s">
+    <row r="10" ht="30.0" customHeight="1">
+      <c r="A10" s="32" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>57</v>
+      </c>
       <c r="F10" s="29"/>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>59</v>
-      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
       <c r="L10" s="26"/>
       <c r="M10" s="28"/>
       <c r="N10" s="26"/>
@@ -1461,23 +1440,23 @@
       <c r="Z10" s="26"/>
     </row>
     <row r="11" ht="30.0" customHeight="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="32" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>62</v>
-      </c>
       <c r="F11" s="29"/>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="26"/>
@@ -1500,58 +1479,18 @@
       <c r="Y11" s="26"/>
       <c r="Z11" s="26"/>
     </row>
-    <row r="12" ht="30.0" customHeight="1">
-      <c r="A12" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L12 M1:Z1">
+  <conditionalFormatting sqref="L1:L11 M1:Z1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L12 M1:Z1">
+  <conditionalFormatting sqref="L1:L11 M1:Z1">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L12 M1:Z1">
+  <conditionalFormatting sqref="L1:L11 M1:Z1">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
@@ -1560,25 +1499,22 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2">
       <formula1>Keywords!$A$2:$A172</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:H8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:H8 H10">
       <formula1>Keywords!$A$2:$A168</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H11">
       <formula1>Keywords!$A$2:$A184</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H10:H11">
-      <formula1>Keywords!$A$2:$A174</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D11">
       <formula1>Keywords!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G11">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9">
       <formula1>Keywords!$A$2:$A175</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A11">
       <formula1>TestCase!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -1609,10 +1545,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -7048,9 +6984,18 @@
       <c r="Z142" s="40"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="40"/>
-      <c r="B143" s="40"/>
-      <c r="C143" s="40"/>
+      <c r="A143" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"clickLesson")</f>
+        <v>clickLesson</v>
+      </c>
+      <c r="B143" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property")</f>
+        <v>element,component,property</v>
+      </c>
+      <c r="C143" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D143" s="40"/>
       <c r="E143" s="40"/>
       <c r="F143" s="40"/>
@@ -7076,9 +7021,15 @@
       <c r="Z143" s="40"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="40"/>
+      <c r="A144" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMapMgo")</f>
+        <v>swipeMapMgo</v>
+      </c>
       <c r="B144" s="40"/>
-      <c r="C144" s="40"/>
+      <c r="C144" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D144" s="40"/>
       <c r="E144" s="40"/>
       <c r="F144" s="40"/>
@@ -7104,9 +7055,18 @@
       <c r="Z144" s="40"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="40"/>
-      <c r="B145" s="40"/>
-      <c r="C145" s="40"/>
+      <c r="A145" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"verifyFlow")</f>
+        <v>verifyFlow</v>
+      </c>
+      <c r="B145" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"file expected")</f>
+        <v>file expected</v>
+      </c>
+      <c r="C145" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D145" s="40"/>
       <c r="E145" s="40"/>
       <c r="F145" s="40"/>
@@ -7132,9 +7092,15 @@
       <c r="Z145" s="40"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="40"/>
+      <c r="A146" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFileWhichCondition")</f>
+        <v>setVariableFileWhichCondition</v>
+      </c>
       <c r="B146" s="40"/>
-      <c r="C146" s="40"/>
+      <c r="C146" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D146" s="40"/>
       <c r="E146" s="40"/>
       <c r="F146" s="40"/>
@@ -7160,7 +7126,10 @@
       <c r="Z146" s="40"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="40"/>
+      <c r="A147" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfStringFile")</f>
+        <v>setVariableTypeOfStringFile</v>
+      </c>
       <c r="B147" s="40"/>
       <c r="C147" s="40"/>
       <c r="D147" s="40"/>
@@ -7188,7 +7157,10 @@
       <c r="Z147" s="40"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="40"/>
+      <c r="A148" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfIntFile")</f>
+        <v>setVariableTypeOfIntFile</v>
+      </c>
       <c r="B148" s="40"/>
       <c r="C148" s="40"/>
       <c r="D148" s="40"/>
@@ -7216,7 +7188,10 @@
       <c r="Z148" s="40"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="40"/>
+      <c r="A149" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPath")</f>
+        <v>getPath</v>
+      </c>
       <c r="B149" s="40"/>
       <c r="C149" s="40"/>
       <c r="D149" s="40"/>
@@ -31096,10 +31071,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
